--- a/data/pca/factorExposure/factorExposure_2017-08-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02415371166243396</v>
+        <v>0.006664252269445773</v>
       </c>
       <c r="C2">
-        <v>0.006311257426532723</v>
+        <v>0.04195850846484856</v>
       </c>
       <c r="D2">
-        <v>0.01800631224790803</v>
+        <v>-0.02968654769661505</v>
       </c>
       <c r="E2">
-        <v>-0.01017512244404922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03199576147911358</v>
+      </c>
+      <c r="F2">
+        <v>-0.01814795555813534</v>
+      </c>
+      <c r="G2">
+        <v>0.04665776144643723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01538472301347518</v>
+        <v>0.05554109446413781</v>
       </c>
       <c r="C3">
-        <v>0.05735090329282851</v>
+        <v>0.06845396488124483</v>
       </c>
       <c r="D3">
-        <v>0.007910315536983794</v>
+        <v>-0.01461924411893715</v>
       </c>
       <c r="E3">
-        <v>-0.007834692882073382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09930617105498354</v>
+      </c>
+      <c r="F3">
+        <v>-0.04614710583157895</v>
+      </c>
+      <c r="G3">
+        <v>0.103564995529363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02297278240754586</v>
+        <v>0.0551640497052762</v>
       </c>
       <c r="C4">
-        <v>0.02266684798499916</v>
+        <v>0.0634619552425376</v>
       </c>
       <c r="D4">
-        <v>0.06128130289616035</v>
+        <v>-0.02330720236493631</v>
       </c>
       <c r="E4">
-        <v>0.01520857558195803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01773958102087991</v>
+      </c>
+      <c r="F4">
+        <v>-0.004883636447214862</v>
+      </c>
+      <c r="G4">
+        <v>0.05940808813640306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01541276159171352</v>
+        <v>0.03684727427867857</v>
       </c>
       <c r="C6">
-        <v>0.02048722231096825</v>
+        <v>0.04920163910331123</v>
       </c>
       <c r="D6">
-        <v>0.08000386085504245</v>
+        <v>-0.01546566931016231</v>
       </c>
       <c r="E6">
-        <v>0.005870482001439059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01649437622931624</v>
+      </c>
+      <c r="F6">
+        <v>-0.01296267297408605</v>
+      </c>
+      <c r="G6">
+        <v>0.03568716510304698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01060178589772182</v>
+        <v>0.01651313731258942</v>
       </c>
       <c r="C7">
-        <v>0.005769895722214119</v>
+        <v>0.03648967487138109</v>
       </c>
       <c r="D7">
-        <v>0.0302807635776454</v>
+        <v>-0.01338688414710796</v>
       </c>
       <c r="E7">
-        <v>0.0755209465929057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.008318130041976629</v>
+      </c>
+      <c r="F7">
+        <v>-0.002727146974371444</v>
+      </c>
+      <c r="G7">
+        <v>0.1016353224745511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001163924144284092</v>
+        <v>-0.001803242677803564</v>
       </c>
       <c r="C8">
-        <v>0.0001034420655260913</v>
+        <v>0.01908586928523305</v>
       </c>
       <c r="D8">
-        <v>0.006040930716521887</v>
+        <v>-0.003850058344570939</v>
       </c>
       <c r="E8">
-        <v>0.006888403043100867</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02294876994098206</v>
+      </c>
+      <c r="F8">
+        <v>-0.02148291978493835</v>
+      </c>
+      <c r="G8">
+        <v>0.03234194637493865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0158855908540974</v>
+        <v>0.03206519998292141</v>
       </c>
       <c r="C9">
-        <v>0.02309176247374379</v>
+        <v>0.04396244533856879</v>
       </c>
       <c r="D9">
-        <v>0.04684511490889625</v>
+        <v>-0.01601247219854206</v>
       </c>
       <c r="E9">
-        <v>0.005897414420991331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01265667638699082</v>
+      </c>
+      <c r="F9">
+        <v>-0.01064933338278146</v>
+      </c>
+      <c r="G9">
+        <v>0.05668412832297283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01675530952986747</v>
+        <v>0.09312527675562442</v>
       </c>
       <c r="C10">
-        <v>0.1574957173511759</v>
+        <v>-0.1834787965293726</v>
       </c>
       <c r="D10">
-        <v>-0.1217270743861294</v>
+        <v>0.01762293429824121</v>
       </c>
       <c r="E10">
-        <v>0.01304003028390309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.009854080394376928</v>
+      </c>
+      <c r="F10">
+        <v>0.01976159136913892</v>
+      </c>
+      <c r="G10">
+        <v>0.04986996974714591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0006632766755171659</v>
+        <v>0.03127814358680284</v>
       </c>
       <c r="C11">
-        <v>0.009345109452805478</v>
+        <v>0.05343069678368791</v>
       </c>
       <c r="D11">
-        <v>0.04178211798155685</v>
+        <v>-0.002376859619099255</v>
       </c>
       <c r="E11">
-        <v>-0.006322442411123086</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.006676092854666219</v>
+      </c>
+      <c r="F11">
+        <v>-0.02111247596543263</v>
+      </c>
+      <c r="G11">
+        <v>0.03923030183732871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006118459985255548</v>
+        <v>0.03134813614032739</v>
       </c>
       <c r="C12">
-        <v>0.01676373700747434</v>
+        <v>0.04584621647229518</v>
       </c>
       <c r="D12">
-        <v>0.04379977643173152</v>
+        <v>-0.006275724719142071</v>
       </c>
       <c r="E12">
-        <v>0.002382665984106971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001700897911394912</v>
+      </c>
+      <c r="F12">
+        <v>-0.005443806491182979</v>
+      </c>
+      <c r="G12">
+        <v>0.03897885731172034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02230044586109376</v>
+        <v>0.0141417435116111</v>
       </c>
       <c r="C13">
-        <v>0.01748537693373853</v>
+        <v>0.03085515080470715</v>
       </c>
       <c r="D13">
-        <v>0.009472160411616363</v>
+        <v>-0.02491280358981414</v>
       </c>
       <c r="E13">
-        <v>-0.009573085927812275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02251795771809682</v>
+      </c>
+      <c r="F13">
+        <v>-0.009137377875660629</v>
+      </c>
+      <c r="G13">
+        <v>0.05493511753602839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007630439549571788</v>
+        <v>0.008142689173470198</v>
       </c>
       <c r="C14">
-        <v>0.01462546179008065</v>
+        <v>0.02553313696055737</v>
       </c>
       <c r="D14">
-        <v>0.01313279394383715</v>
+        <v>-0.008584302507265378</v>
       </c>
       <c r="E14">
-        <v>0.01325609519847498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.005457542036804306</v>
+      </c>
+      <c r="F14">
+        <v>0.005080584681591851</v>
+      </c>
+      <c r="G14">
+        <v>0.05645601729959585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.00144715906416199</v>
+        <v>0.03156511402740857</v>
       </c>
       <c r="C16">
-        <v>0.01691049977915868</v>
+        <v>0.04444121639234579</v>
       </c>
       <c r="D16">
-        <v>0.04559766726119381</v>
+        <v>-0.001737038894184026</v>
       </c>
       <c r="E16">
-        <v>0.001856454983163975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.005144053854570427</v>
+      </c>
+      <c r="F16">
+        <v>-0.007840992993607746</v>
+      </c>
+      <c r="G16">
+        <v>0.03958570874163655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01385510055248505</v>
+        <v>0.02264541664257759</v>
       </c>
       <c r="C19">
-        <v>0.02654681454004363</v>
+        <v>0.04867081325651616</v>
       </c>
       <c r="D19">
-        <v>0.01959484813928945</v>
+        <v>-0.01644829797555445</v>
       </c>
       <c r="E19">
-        <v>0.004157894646196913</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05405330430577272</v>
+      </c>
+      <c r="F19">
+        <v>-0.02337667132936413</v>
+      </c>
+      <c r="G19">
+        <v>0.06688709700563054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01087864740467008</v>
+        <v>0.01184803671238258</v>
       </c>
       <c r="C20">
-        <v>0.01070292559284013</v>
+        <v>0.03256921824867229</v>
       </c>
       <c r="D20">
-        <v>0.009010610005127711</v>
+        <v>-0.01315713337403284</v>
       </c>
       <c r="E20">
-        <v>-0.0001832194251208716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0239072381668458</v>
+      </c>
+      <c r="F20">
+        <v>0.002631217519492827</v>
+      </c>
+      <c r="G20">
+        <v>0.05454730102519671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01518866154408173</v>
+        <v>0.01427033702221301</v>
       </c>
       <c r="C21">
-        <v>0.03289363715082187</v>
+        <v>0.03374602705940715</v>
       </c>
       <c r="D21">
-        <v>0.01658342455982205</v>
+        <v>-0.01647786593055852</v>
       </c>
       <c r="E21">
-        <v>0.01796529812533166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03138048301210122</v>
+      </c>
+      <c r="F21">
+        <v>-0.000734439424316882</v>
+      </c>
+      <c r="G21">
+        <v>0.07820442199922106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004742612418755555</v>
+        <v>0.02467619598879804</v>
       </c>
       <c r="C24">
-        <v>0.005314869545470904</v>
+        <v>0.04795797871448497</v>
       </c>
       <c r="D24">
-        <v>0.04116317715596918</v>
+        <v>-0.007246360237281636</v>
       </c>
       <c r="E24">
-        <v>-0.0003012466359957431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.002793326131415504</v>
+      </c>
+      <c r="F24">
+        <v>-0.01917336196608817</v>
+      </c>
+      <c r="G24">
+        <v>0.04225529230271881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01234113981077327</v>
+        <v>0.03958827506751236</v>
       </c>
       <c r="C25">
-        <v>0.02570992991586019</v>
+        <v>0.05473259923886565</v>
       </c>
       <c r="D25">
-        <v>0.0408306599178359</v>
+        <v>-0.01127290698353198</v>
       </c>
       <c r="E25">
-        <v>-0.001027634585069316</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.004901248280040082</v>
+      </c>
+      <c r="F25">
+        <v>-0.01139537778941025</v>
+      </c>
+      <c r="G25">
+        <v>0.04737582303665095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02309343156248487</v>
+        <v>0.01263027240470926</v>
       </c>
       <c r="C26">
-        <v>0.01204069078993753</v>
+        <v>0.007208983366268875</v>
       </c>
       <c r="D26">
-        <v>-0.007151332679144667</v>
+        <v>-0.02328288047536156</v>
       </c>
       <c r="E26">
-        <v>0.008722291688546933</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.003136736136285406</v>
+      </c>
+      <c r="F26">
+        <v>0.006415532930920823</v>
+      </c>
+      <c r="G26">
+        <v>0.04329964495264457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0377285580855316</v>
+        <v>0.1208714383529467</v>
       </c>
       <c r="C28">
-        <v>0.2286088381460931</v>
+        <v>-0.2305552461193728</v>
       </c>
       <c r="D28">
-        <v>-0.1771757046218337</v>
+        <v>0.00881024833610175</v>
       </c>
       <c r="E28">
-        <v>0.02062700386822382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.001181857087954892</v>
+      </c>
+      <c r="F28">
+        <v>0.02081065697378313</v>
+      </c>
+      <c r="G28">
+        <v>0.06360884254767554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007975905660851599</v>
+        <v>0.01066294117964541</v>
       </c>
       <c r="C29">
-        <v>0.01979457146232062</v>
+        <v>0.01918356769796261</v>
       </c>
       <c r="D29">
-        <v>0.01013480398229371</v>
+        <v>-0.007383713330503303</v>
       </c>
       <c r="E29">
-        <v>0.008027624860186379</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007982913739774378</v>
+      </c>
+      <c r="F29">
+        <v>0.01401050533392058</v>
+      </c>
+      <c r="G29">
+        <v>0.04585554212682104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02376674583106431</v>
+        <v>0.04455423340791922</v>
       </c>
       <c r="C30">
-        <v>0.00900890050596267</v>
+        <v>0.06241301795482036</v>
       </c>
       <c r="D30">
-        <v>0.06212038569603002</v>
+        <v>-0.02770703973723229</v>
       </c>
       <c r="E30">
-        <v>-0.05520892739989897</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04404320750982604</v>
+      </c>
+      <c r="F30">
+        <v>-0.05613207252293038</v>
+      </c>
+      <c r="G30">
+        <v>0.03376946414862242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.008850066997336582</v>
+        <v>0.04987286638428644</v>
       </c>
       <c r="C31">
-        <v>0.0436266352245011</v>
+        <v>0.03325407108735536</v>
       </c>
       <c r="D31">
-        <v>0.04269039241849105</v>
+        <v>-0.003419825264208677</v>
       </c>
       <c r="E31">
-        <v>0.01115530973632666</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.006426351726375919</v>
+      </c>
+      <c r="F31">
+        <v>0.0385096970155777</v>
+      </c>
+      <c r="G31">
+        <v>0.04630227899329165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006039560623978417</v>
+        <v>-0.003581778691154123</v>
       </c>
       <c r="C32">
-        <v>0.02437262723467624</v>
+        <v>0.02814080684203042</v>
       </c>
       <c r="D32">
-        <v>-0.005270029671825637</v>
+        <v>0.004025206227454442</v>
       </c>
       <c r="E32">
-        <v>0.03141704272161643</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01495365657009881</v>
+      </c>
+      <c r="F32">
+        <v>-0.04928857571463536</v>
+      </c>
+      <c r="G32">
+        <v>0.06903560818893675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01336737668692947</v>
+        <v>0.02619478090618551</v>
       </c>
       <c r="C33">
-        <v>0.02717826799189719</v>
+        <v>0.04589774357675569</v>
       </c>
       <c r="D33">
-        <v>0.0210365506334312</v>
+        <v>-0.01453558752142369</v>
       </c>
       <c r="E33">
-        <v>-0.0231434081796965</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02658757242240046</v>
+      </c>
+      <c r="F33">
+        <v>-0.0216276775811978</v>
+      </c>
+      <c r="G33">
+        <v>0.06085222820836287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004045301042076718</v>
+        <v>0.03910764093110988</v>
       </c>
       <c r="C34">
-        <v>0.02288269939596951</v>
+        <v>0.05758345174962246</v>
       </c>
       <c r="D34">
-        <v>0.04377265059056648</v>
+        <v>0.004599607723287908</v>
       </c>
       <c r="E34">
-        <v>0.006503103643694491</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.004286396258739299</v>
+      </c>
+      <c r="F34">
+        <v>-0.02505022196926527</v>
+      </c>
+      <c r="G34">
+        <v>0.04924676422166092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01294624011453976</v>
+        <v>0.01212832583805549</v>
       </c>
       <c r="C36">
-        <v>0.02341507200216009</v>
+        <v>0.007430188393030842</v>
       </c>
       <c r="D36">
-        <v>0.002200788373204353</v>
+        <v>-0.0114299950912438</v>
       </c>
       <c r="E36">
-        <v>0.003073691913834175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0001484475946094569</v>
+      </c>
+      <c r="F36">
+        <v>0.008988841756041734</v>
+      </c>
+      <c r="G36">
+        <v>0.0384114719950296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003814825781059224</v>
+        <v>0.03040710889641328</v>
       </c>
       <c r="C38">
-        <v>0.03846791180326167</v>
+        <v>0.02795108080757519</v>
       </c>
       <c r="D38">
-        <v>0.02778033533890835</v>
+        <v>0.007443673083523922</v>
       </c>
       <c r="E38">
-        <v>0.001597248710919078</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004418493105890009</v>
+      </c>
+      <c r="F38">
+        <v>0.01122811296605435</v>
+      </c>
+      <c r="G38">
+        <v>0.04552916883382382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005574072984227877</v>
+        <v>0.03120133834579331</v>
       </c>
       <c r="C39">
-        <v>-0.01353472590092393</v>
+        <v>0.08139976701462988</v>
       </c>
       <c r="D39">
-        <v>0.0909968901598249</v>
+        <v>-0.0122807098597095</v>
       </c>
       <c r="E39">
-        <v>-0.006439071382131982</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02184134283434475</v>
+      </c>
+      <c r="F39">
+        <v>-0.03573846270365611</v>
+      </c>
+      <c r="G39">
+        <v>0.04455092651654965</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01221562429797641</v>
+        <v>0.01917536159645878</v>
       </c>
       <c r="C40">
-        <v>0.0256517994425419</v>
+        <v>0.0316060356598428</v>
       </c>
       <c r="D40">
-        <v>0.02926875414770457</v>
+        <v>-0.01332932166651539</v>
       </c>
       <c r="E40">
-        <v>-0.002741975064726971</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01939290761988102</v>
+      </c>
+      <c r="F40">
+        <v>-0.01476195662789274</v>
+      </c>
+      <c r="G40">
+        <v>0.04291409728473809</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.00604373206652018</v>
+        <v>0.01124828140295708</v>
       </c>
       <c r="C41">
-        <v>0.02282444468127212</v>
+        <v>0.001860574776282875</v>
       </c>
       <c r="D41">
-        <v>-0.008639612492081325</v>
+        <v>-0.004124591647497002</v>
       </c>
       <c r="E41">
-        <v>0.002848641218183314</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0008108010472408289</v>
+      </c>
+      <c r="F41">
+        <v>0.001113255169075784</v>
+      </c>
+      <c r="G41">
+        <v>0.02768212620687591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09354809279726631</v>
+        <v>0.01439248560288546</v>
       </c>
       <c r="C42">
-        <v>0.002842573415643071</v>
+        <v>0.04204504832700894</v>
       </c>
       <c r="D42">
-        <v>0.2749851628286739</v>
+        <v>-0.09451078308714929</v>
       </c>
       <c r="E42">
-        <v>-0.2790240787784288</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03511017842388879</v>
+      </c>
+      <c r="F42">
+        <v>0.03952326509523938</v>
+      </c>
+      <c r="G42">
+        <v>-0.1621041549055625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007443176056075641</v>
+        <v>0.02912140035670544</v>
       </c>
       <c r="C43">
-        <v>0.02627468893153779</v>
+        <v>0.01252783516179154</v>
       </c>
       <c r="D43">
-        <v>-0.01338313881189489</v>
+        <v>-0.00490583543580469</v>
       </c>
       <c r="E43">
-        <v>-0.003172953502621417</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.008832935166709494</v>
+      </c>
+      <c r="F43">
+        <v>0.003222356125339816</v>
+      </c>
+      <c r="G43">
+        <v>0.040406867375846</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0035957972947431</v>
+        <v>0.01591064487518861</v>
       </c>
       <c r="C44">
-        <v>0.01025900739935609</v>
+        <v>0.04778259705745007</v>
       </c>
       <c r="D44">
-        <v>0.02713122319667152</v>
+        <v>-0.006163359558743371</v>
       </c>
       <c r="E44">
-        <v>0.001560248379417815</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01643403564582632</v>
+      </c>
+      <c r="F44">
+        <v>-0.0003908387423749487</v>
+      </c>
+      <c r="G44">
+        <v>0.05836133977851718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01117418273024117</v>
+        <v>0.005828241889701291</v>
       </c>
       <c r="C46">
-        <v>0.01959492244722606</v>
+        <v>0.01671826209861953</v>
       </c>
       <c r="D46">
-        <v>0.0104646655994053</v>
+        <v>-0.01142556210683575</v>
       </c>
       <c r="E46">
-        <v>0.001985175557269398</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.006401980404103958</v>
+      </c>
+      <c r="F46">
+        <v>0.01969225505020085</v>
+      </c>
+      <c r="G46">
+        <v>0.04349426804388797</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.003401280395351677</v>
+        <v>0.07619373479518046</v>
       </c>
       <c r="C47">
-        <v>0.05980464095545942</v>
+        <v>0.06613853570232402</v>
       </c>
       <c r="D47">
-        <v>0.05548417930627612</v>
+        <v>0.00488608598563771</v>
       </c>
       <c r="E47">
-        <v>0.0002517879696871315</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.00975412144253553</v>
+      </c>
+      <c r="F47">
+        <v>0.05451583361496444</v>
+      </c>
+      <c r="G47">
+        <v>0.04150810924186845</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.003786820385638342</v>
+        <v>0.02029937950514397</v>
       </c>
       <c r="C48">
-        <v>0.02982781978012083</v>
+        <v>0.009443123140179343</v>
       </c>
       <c r="D48">
-        <v>0.009033560032866478</v>
+        <v>-0.0008107759115029492</v>
       </c>
       <c r="E48">
-        <v>0.003525701040254974</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004127636401692671</v>
+      </c>
+      <c r="F48">
+        <v>0.0176641398128603</v>
+      </c>
+      <c r="G48">
+        <v>0.04432156450484778</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.005344929920775478</v>
+        <v>0.07886940463993773</v>
       </c>
       <c r="C50">
-        <v>0.05804805535637381</v>
+        <v>0.06728369616533576</v>
       </c>
       <c r="D50">
-        <v>0.05990342170638926</v>
+        <v>0.00324495503450831</v>
       </c>
       <c r="E50">
-        <v>0.03027789756974582</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01375843400948589</v>
+      </c>
+      <c r="F50">
+        <v>0.05911940792998847</v>
+      </c>
+      <c r="G50">
+        <v>0.06642697645506082</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007591133242056469</v>
+        <v>0.01248856961810237</v>
       </c>
       <c r="C51">
-        <v>0.02119487357452172</v>
+        <v>0.03171323125106005</v>
       </c>
       <c r="D51">
-        <v>-0.00502126921937906</v>
+        <v>-0.009206647404373791</v>
       </c>
       <c r="E51">
-        <v>0.00319744192196813</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01045399021091292</v>
+      </c>
+      <c r="F51">
+        <v>-0.02213345263802207</v>
+      </c>
+      <c r="G51">
+        <v>0.06557845410812896</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.006300633816626032</v>
+        <v>0.08386241745172915</v>
       </c>
       <c r="C53">
-        <v>0.0726448344187262</v>
+        <v>0.08067803616020348</v>
       </c>
       <c r="D53">
-        <v>0.1149895075676641</v>
+        <v>0.004287263993344281</v>
       </c>
       <c r="E53">
-        <v>0.009773581732292631</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03312013960881206</v>
+      </c>
+      <c r="F53">
+        <v>0.05940217530717765</v>
+      </c>
+      <c r="G53">
+        <v>0.03993839550318694</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0006505189268149978</v>
+        <v>0.03187515864446754</v>
       </c>
       <c r="C54">
-        <v>0.0373433518134264</v>
+        <v>0.01248803233270549</v>
       </c>
       <c r="D54">
-        <v>-0.009198138399934748</v>
+        <v>0.002931240545569615</v>
       </c>
       <c r="E54">
-        <v>0.01036450049564524</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.001190517379469873</v>
+      </c>
+      <c r="F54">
+        <v>0.00613701645405851</v>
+      </c>
+      <c r="G54">
+        <v>0.04873365712111375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.00349333464166349</v>
+        <v>0.07191127758482743</v>
       </c>
       <c r="C55">
-        <v>0.05509652103679028</v>
+        <v>0.07199942916684603</v>
       </c>
       <c r="D55">
-        <v>0.09900655749018132</v>
+        <v>0.004844236945143149</v>
       </c>
       <c r="E55">
-        <v>-0.003819592532962288</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02561015787679372</v>
+      </c>
+      <c r="F55">
+        <v>0.05845644681807582</v>
+      </c>
+      <c r="G55">
+        <v>0.02157971988210206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.005049860973331596</v>
+        <v>0.1428241495333323</v>
       </c>
       <c r="C56">
-        <v>0.1016215574948033</v>
+        <v>0.1068432342883993</v>
       </c>
       <c r="D56">
-        <v>0.1468061106472734</v>
+        <v>0.01259843324194536</v>
       </c>
       <c r="E56">
-        <v>0.0003993487527932726</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03775886081037892</v>
+      </c>
+      <c r="F56">
+        <v>0.08208500694160129</v>
+      </c>
+      <c r="G56">
+        <v>0.008812363560282229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02421856086640307</v>
+        <v>0.009382824975519078</v>
       </c>
       <c r="C57">
-        <v>0.02368126553613605</v>
+        <v>0.009458282805674005</v>
       </c>
       <c r="D57">
-        <v>0.03990719939884594</v>
+        <v>-0.02351310022180153</v>
       </c>
       <c r="E57">
-        <v>-0.003679809257738255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02730174798674818</v>
+      </c>
+      <c r="F57">
+        <v>-0.01277487213199602</v>
+      </c>
+      <c r="G57">
+        <v>0.02447840133141566</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01333916844406415</v>
+        <v>0.08237460346635544</v>
       </c>
       <c r="C58">
-        <v>0.1027878786352124</v>
+        <v>0.03372609539427408</v>
       </c>
       <c r="D58">
-        <v>0.08940987674097563</v>
+        <v>-0.01611644522510142</v>
       </c>
       <c r="E58">
-        <v>-0.2009449565819331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9449793052439335</v>
+      </c>
+      <c r="F58">
+        <v>0.2229476312816976</v>
+      </c>
+      <c r="G58">
+        <v>-0.02920224676265258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03455666788206174</v>
+        <v>0.161109770960529</v>
       </c>
       <c r="C59">
-        <v>0.2438194142478743</v>
+        <v>-0.2106977164783779</v>
       </c>
       <c r="D59">
-        <v>-0.1799402229600661</v>
+        <v>0.01583128952369085</v>
       </c>
       <c r="E59">
-        <v>-0.00248473942881439</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.003796438498342762</v>
+      </c>
+      <c r="F59">
+        <v>-0.001373779950304417</v>
+      </c>
+      <c r="G59">
+        <v>0.02078939122194906</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.0379964010396815</v>
+        <v>0.2823697017378867</v>
       </c>
       <c r="C60">
-        <v>0.1650119252616422</v>
+        <v>0.1013277126974463</v>
       </c>
       <c r="D60">
-        <v>0.06761897836707861</v>
+        <v>-0.01192936833566848</v>
       </c>
       <c r="E60">
-        <v>-0.04008568280496427</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.00470788496847134</v>
+      </c>
+      <c r="F60">
+        <v>-0.3550993302171107</v>
+      </c>
+      <c r="G60">
+        <v>-0.09060772545591837</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.00371967295221095</v>
+        <v>0.03398770831494288</v>
       </c>
       <c r="C61">
-        <v>0.01315550818138644</v>
+        <v>0.06452137403551832</v>
       </c>
       <c r="D61">
-        <v>0.06172670767233147</v>
+        <v>-0.005512746928429796</v>
       </c>
       <c r="E61">
-        <v>-0.002649809540998343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01075907067554859</v>
+      </c>
+      <c r="F61">
+        <v>-0.01883199347405595</v>
+      </c>
+      <c r="G61">
+        <v>0.03997037112021305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007655443728233772</v>
+        <v>0.01326016449223672</v>
       </c>
       <c r="C63">
-        <v>0.01066005969278329</v>
+        <v>0.02768539309751812</v>
       </c>
       <c r="D63">
-        <v>0.006847432534400551</v>
+        <v>-0.007922058383599419</v>
       </c>
       <c r="E63">
-        <v>0.008207389492045586</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.004353490704128413</v>
+      </c>
+      <c r="F63">
+        <v>0.01821342321794815</v>
+      </c>
+      <c r="G63">
+        <v>0.04803578559308995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.008253771265298757</v>
+        <v>0.05144923674898423</v>
       </c>
       <c r="C64">
-        <v>0.03481755548420236</v>
+        <v>0.04499944436990137</v>
       </c>
       <c r="D64">
-        <v>0.06537130746761967</v>
+        <v>-0.005537584768832688</v>
       </c>
       <c r="E64">
-        <v>-0.01298218090270272</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.00652314405784925</v>
+      </c>
+      <c r="F64">
+        <v>-0.00409396340451563</v>
+      </c>
+      <c r="G64">
+        <v>0.03303470636874829</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01764444684258278</v>
+        <v>0.08402526848396556</v>
       </c>
       <c r="C65">
-        <v>0.02470979774854908</v>
+        <v>0.05886824440647298</v>
       </c>
       <c r="D65">
-        <v>0.09094241449916712</v>
+        <v>-0.01484962578786594</v>
       </c>
       <c r="E65">
-        <v>0.004891586009282297</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01745238687849672</v>
+      </c>
+      <c r="F65">
+        <v>-0.03519770970701665</v>
+      </c>
+      <c r="G65">
+        <v>0.01701046601414359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005482630493364084</v>
+        <v>0.04949041175920336</v>
       </c>
       <c r="C66">
-        <v>-0.003969831858789187</v>
+        <v>0.1125990087615207</v>
       </c>
       <c r="D66">
-        <v>0.1173155333992595</v>
+        <v>-0.01212017498559447</v>
       </c>
       <c r="E66">
-        <v>-0.01859762416738911</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02713161696185545</v>
+      </c>
+      <c r="F66">
+        <v>-0.04265395336900535</v>
+      </c>
+      <c r="G66">
+        <v>0.04171050082112061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.002429874561052533</v>
+        <v>0.05253164888704387</v>
       </c>
       <c r="C67">
-        <v>0.06007199663667902</v>
+        <v>0.03199965928055282</v>
       </c>
       <c r="D67">
-        <v>0.03172423807537809</v>
+        <v>0.005480543847503353</v>
       </c>
       <c r="E67">
-        <v>0.0008625112244622407</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.00193028519571045</v>
+      </c>
+      <c r="F67">
+        <v>0.01360598641323056</v>
+      </c>
+      <c r="G67">
+        <v>0.04253773453824045</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05186017082106979</v>
+        <v>0.1437809296291792</v>
       </c>
       <c r="C68">
-        <v>0.2169297207789055</v>
+        <v>-0.2705063207362743</v>
       </c>
       <c r="D68">
-        <v>-0.1677387606080067</v>
+        <v>-0.002383581266843713</v>
       </c>
       <c r="E68">
-        <v>-0.006108342831963283</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.004325789613421296</v>
+      </c>
+      <c r="F68">
+        <v>0.03806519411549198</v>
+      </c>
+      <c r="G68">
+        <v>0.02163658516187596</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.00137355125908883</v>
+        <v>0.07664911713999106</v>
       </c>
       <c r="C69">
-        <v>0.0494596847901855</v>
+        <v>0.0681183366207406</v>
       </c>
       <c r="D69">
-        <v>0.06022762360806155</v>
+        <v>0.008647918680664933</v>
       </c>
       <c r="E69">
-        <v>0.001070082833648224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0264864016002204</v>
+      </c>
+      <c r="F69">
+        <v>0.03974355185998436</v>
+      </c>
+      <c r="G69">
+        <v>0.04634670662779901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03769819433025032</v>
+        <v>0.137444370151012</v>
       </c>
       <c r="C71">
-        <v>0.1907235041818161</v>
+        <v>-0.2326050770038252</v>
       </c>
       <c r="D71">
-        <v>-0.1504481770470343</v>
+        <v>0.006429450232941987</v>
       </c>
       <c r="E71">
-        <v>0.007344542682325804</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02273889065488093</v>
+      </c>
+      <c r="F71">
+        <v>0.009891458937341929</v>
+      </c>
+      <c r="G71">
+        <v>0.03889458954949827</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-7.202084510034099e-05</v>
+        <v>0.08339005943702495</v>
       </c>
       <c r="C72">
-        <v>0.05809230775831663</v>
+        <v>0.07208015366153661</v>
       </c>
       <c r="D72">
-        <v>0.1290681749660976</v>
+        <v>0.008132642005781019</v>
       </c>
       <c r="E72">
-        <v>-0.01985590606768606</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.00512483943830194</v>
+      </c>
+      <c r="F72">
+        <v>-0.04161032208407005</v>
+      </c>
+      <c r="G72">
+        <v>0.01892264055935048</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05169233461718484</v>
+        <v>0.3958024882686106</v>
       </c>
       <c r="C73">
-        <v>0.1938041487198904</v>
+        <v>0.1170442857252931</v>
       </c>
       <c r="D73">
-        <v>0.1640292695201295</v>
+        <v>-0.01804069875669668</v>
       </c>
       <c r="E73">
-        <v>-0.09788335878225805</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.0539549742937686</v>
+      </c>
+      <c r="F73">
+        <v>-0.549536210084676</v>
+      </c>
+      <c r="G73">
+        <v>-0.1634066239875482</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.002542871901814155</v>
+        <v>0.1115654720883265</v>
       </c>
       <c r="C74">
-        <v>0.09214656356541605</v>
+        <v>0.116771633203702</v>
       </c>
       <c r="D74">
-        <v>0.1526775643201579</v>
+        <v>0.009655619938682107</v>
       </c>
       <c r="E74">
-        <v>-0.006757378209930549</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01592473631744719</v>
+      </c>
+      <c r="F74">
+        <v>0.07592925088697344</v>
+      </c>
+      <c r="G74">
+        <v>0.0474068148865817</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.009208369727368111</v>
+        <v>0.2502566304401729</v>
       </c>
       <c r="C75">
-        <v>0.2048160410715309</v>
+        <v>0.1556100126997385</v>
       </c>
       <c r="D75">
-        <v>0.2750717964305149</v>
+        <v>0.02943770188986523</v>
       </c>
       <c r="E75">
-        <v>-0.01669388932857641</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05437305099861254</v>
+      </c>
+      <c r="F75">
+        <v>0.1870541906394235</v>
+      </c>
+      <c r="G75">
+        <v>-0.04161097302814148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.00130718223342654</v>
+        <v>0.1267835029939926</v>
       </c>
       <c r="C76">
-        <v>0.1349576189464451</v>
+        <v>0.1174110036392941</v>
       </c>
       <c r="D76">
-        <v>0.2231255874297343</v>
+        <v>0.02045254107145932</v>
       </c>
       <c r="E76">
-        <v>0.01197173837585141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04703485204426437</v>
+      </c>
+      <c r="F76">
+        <v>0.1182032432089988</v>
+      </c>
+      <c r="G76">
+        <v>0.02246739279756838</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01220446788989994</v>
+        <v>0.06476498897729438</v>
       </c>
       <c r="C77">
-        <v>0.02035402073091918</v>
+        <v>0.06102757593944518</v>
       </c>
       <c r="D77">
-        <v>0.05170614261793276</v>
+        <v>-0.01224762293553023</v>
       </c>
       <c r="E77">
-        <v>-0.006435404830695338</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04948361488253948</v>
+      </c>
+      <c r="F77">
+        <v>-0.01201704078018279</v>
+      </c>
+      <c r="G77">
+        <v>0.05198309535717643</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004645003768834055</v>
+        <v>0.04129040265426848</v>
       </c>
       <c r="C78">
-        <v>0.01863864008540297</v>
+        <v>0.05081380963841603</v>
       </c>
       <c r="D78">
-        <v>0.06205436053621972</v>
+        <v>-0.005420561744757081</v>
       </c>
       <c r="E78">
-        <v>-3.326626397159516e-05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01935971574152609</v>
+      </c>
+      <c r="F78">
+        <v>-0.03943215889488242</v>
+      </c>
+      <c r="G78">
+        <v>0.04792177975229456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01573378884533992</v>
+        <v>0.05399951499715855</v>
       </c>
       <c r="C80">
-        <v>0.102382749641213</v>
+        <v>0.06577288555446151</v>
       </c>
       <c r="D80">
-        <v>0.1582121855581223</v>
+        <v>-0.01234257085132163</v>
       </c>
       <c r="E80">
-        <v>0.9131979003915884</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03244006446560774</v>
+      </c>
+      <c r="F80">
+        <v>-0.01703683847656828</v>
+      </c>
+      <c r="G80">
+        <v>0.8479191077035891</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.00661721444151805</v>
+        <v>0.1447043140840886</v>
       </c>
       <c r="C81">
-        <v>0.1268063907927579</v>
+        <v>0.09288878242670114</v>
       </c>
       <c r="D81">
-        <v>0.1612919721369509</v>
+        <v>0.01501477818432978</v>
       </c>
       <c r="E81">
-        <v>-0.0002585383979711899</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03138299907244116</v>
+      </c>
+      <c r="F81">
+        <v>0.1255940475997173</v>
+      </c>
+      <c r="G81">
+        <v>0.01927794304599919</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.102845376988311</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05368568594983596</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.005224807764264599</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07849051268749328</v>
+      </c>
+      <c r="F82">
+        <v>0.02171668702794826</v>
+      </c>
+      <c r="G82">
+        <v>0.02337981548646704</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007280849472123762</v>
+        <v>0.02718766400190841</v>
       </c>
       <c r="C83">
-        <v>0.02545207024466666</v>
+        <v>0.02179300432512507</v>
       </c>
       <c r="D83">
-        <v>0.02167626588144505</v>
+        <v>-0.005512209253543216</v>
       </c>
       <c r="E83">
-        <v>-0.002328173709435359</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02532019244773395</v>
+      </c>
+      <c r="F83">
+        <v>-0.02722498273319194</v>
+      </c>
+      <c r="G83">
+        <v>0.03139923921664857</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01543291693127782</v>
+        <v>0.2217064234102898</v>
       </c>
       <c r="C85">
-        <v>0.1587978134676591</v>
+        <v>0.1488674312438706</v>
       </c>
       <c r="D85">
-        <v>0.2577534192444705</v>
+        <v>0.01750143657425316</v>
       </c>
       <c r="E85">
-        <v>-0.0232302327796973</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09427709819025464</v>
+      </c>
+      <c r="F85">
+        <v>0.1490734357625594</v>
+      </c>
+      <c r="G85">
+        <v>-0.07230001051868579</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.007575737658378634</v>
+        <v>0.01139435801761041</v>
       </c>
       <c r="C86">
-        <v>0.02802661537993692</v>
+        <v>0.0170115972067966</v>
       </c>
       <c r="D86">
-        <v>0.007812075881145832</v>
+        <v>-0.01003121510305331</v>
       </c>
       <c r="E86">
-        <v>-0.02867784927259589</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03462990596533969</v>
+      </c>
+      <c r="F86">
+        <v>-0.0284791929255468</v>
+      </c>
+      <c r="G86">
+        <v>0.08178889327227802</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007789102674708098</v>
+        <v>0.01948496677029806</v>
       </c>
       <c r="C87">
-        <v>0.01705230654692884</v>
+        <v>0.02379646008670568</v>
       </c>
       <c r="D87">
-        <v>0.04081519425898718</v>
+        <v>-0.01071130652785094</v>
       </c>
       <c r="E87">
-        <v>-0.005319123933234003</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08252048233052857</v>
+      </c>
+      <c r="F87">
+        <v>-0.02733989892185508</v>
+      </c>
+      <c r="G87">
+        <v>0.06314002592893063</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02738431423904533</v>
+        <v>0.09041044789634216</v>
       </c>
       <c r="C88">
-        <v>0.03654741046778135</v>
+        <v>0.06465620172057109</v>
       </c>
       <c r="D88">
-        <v>0.03577202374716311</v>
+        <v>-0.02289989023466157</v>
       </c>
       <c r="E88">
-        <v>0.001138506813750996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01357895122871927</v>
+      </c>
+      <c r="F88">
+        <v>0.01448899294280367</v>
+      </c>
+      <c r="G88">
+        <v>0.04114605076243683</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07226238780193214</v>
+        <v>0.2225214101639835</v>
       </c>
       <c r="C89">
-        <v>0.3565443146871178</v>
+        <v>-0.3679107823805621</v>
       </c>
       <c r="D89">
-        <v>-0.2623262005557406</v>
+        <v>0.005166724521351192</v>
       </c>
       <c r="E89">
-        <v>-0.0122922170768717</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02067704289941737</v>
+      </c>
+      <c r="F89">
+        <v>0.02142151188039074</v>
+      </c>
+      <c r="G89">
+        <v>0.03537884249796228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.05449552111400045</v>
+        <v>0.200818707086154</v>
       </c>
       <c r="C90">
-        <v>0.2691142890197231</v>
+        <v>-0.3278918470018353</v>
       </c>
       <c r="D90">
-        <v>-0.229703796949754</v>
+        <v>0.009431485101540193</v>
       </c>
       <c r="E90">
-        <v>-0.01394383247106231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02110631862183136</v>
+      </c>
+      <c r="F90">
+        <v>0.04067223688336587</v>
+      </c>
+      <c r="G90">
+        <v>0.007420309178045175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.005285465014237675</v>
+        <v>0.197874969679173</v>
       </c>
       <c r="C91">
-        <v>0.1751482122541171</v>
+        <v>0.1391193413473747</v>
       </c>
       <c r="D91">
-        <v>0.231220858939638</v>
+        <v>0.02319656933711813</v>
       </c>
       <c r="E91">
-        <v>-0.002473302196846161</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07021129935032515</v>
+      </c>
+      <c r="F91">
+        <v>0.1560776870528006</v>
+      </c>
+      <c r="G91">
+        <v>0.004474317630714812</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02193888031355639</v>
+        <v>0.2053314330645967</v>
       </c>
       <c r="C92">
-        <v>0.307270760666872</v>
+        <v>-0.2627841296453723</v>
       </c>
       <c r="D92">
-        <v>-0.1184836273556745</v>
+        <v>0.04574892186151271</v>
       </c>
       <c r="E92">
-        <v>-0.002831760438628283</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.00374249836403611</v>
+      </c>
+      <c r="F92">
+        <v>0.07475885711205286</v>
+      </c>
+      <c r="G92">
+        <v>0.07591108056044522</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05292755647144337</v>
+        <v>0.229203561998044</v>
       </c>
       <c r="C93">
-        <v>0.3014770482217115</v>
+        <v>-0.3220201133545234</v>
       </c>
       <c r="D93">
-        <v>-0.2267148637117284</v>
+        <v>0.01629260032284923</v>
       </c>
       <c r="E93">
-        <v>-0.03349049816411977</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.008088738386769817</v>
+      </c>
+      <c r="F93">
+        <v>0.03571587816802511</v>
+      </c>
+      <c r="G93">
+        <v>0.006605987737650602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02886814494920438</v>
+        <v>0.3028544885414462</v>
       </c>
       <c r="C94">
-        <v>0.2099892221578387</v>
+        <v>0.1860828912754635</v>
       </c>
       <c r="D94">
-        <v>0.2335876634353627</v>
+        <v>0.01390034816319282</v>
       </c>
       <c r="E94">
-        <v>-0.04364705977288471</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1490670658396958</v>
+      </c>
+      <c r="F94">
+        <v>0.4808652868457928</v>
+      </c>
+      <c r="G94">
+        <v>-0.2100613984851216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004595356872353668</v>
+        <v>0.08551117350270167</v>
       </c>
       <c r="C95">
-        <v>0.05074753592178886</v>
+        <v>0.08685082829499854</v>
       </c>
       <c r="D95">
-        <v>0.09166612970683199</v>
+        <v>0.006809347004684807</v>
       </c>
       <c r="E95">
-        <v>-0.1088814391592032</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07397728037389727</v>
+      </c>
+      <c r="F95">
+        <v>-0.2206324518707898</v>
+      </c>
+      <c r="G95">
+        <v>-0.06187085331962607</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01241558949365715</v>
+        <v>0.1962461698810921</v>
       </c>
       <c r="C98">
-        <v>0.1692710834378278</v>
+        <v>0.04340649481004193</v>
       </c>
       <c r="D98">
-        <v>0.1124206588719659</v>
+        <v>0.013690000309684</v>
       </c>
       <c r="E98">
-        <v>-0.06051869661028623</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.0641012551495051</v>
+      </c>
+      <c r="F98">
+        <v>-0.245016210290819</v>
+      </c>
+      <c r="G98">
+        <v>-0.02569866869619306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007760387640497347</v>
+        <v>0.01044988390201233</v>
       </c>
       <c r="C101">
-        <v>0.01941867893634939</v>
+        <v>0.01914201670371943</v>
       </c>
       <c r="D101">
-        <v>0.009923608905732701</v>
+        <v>-0.007212069454711386</v>
       </c>
       <c r="E101">
-        <v>0.008503125907648006</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008217566657505263</v>
+      </c>
+      <c r="F101">
+        <v>0.0150966245648717</v>
+      </c>
+      <c r="G101">
+        <v>0.0456526072350368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01706727877956354</v>
+        <v>0.1204445211368447</v>
       </c>
       <c r="C102">
-        <v>0.09020595569773442</v>
+        <v>0.08495231884966446</v>
       </c>
       <c r="D102">
-        <v>0.1223008538155122</v>
+        <v>-0.001656513711446671</v>
       </c>
       <c r="E102">
-        <v>-0.009170795164895615</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.02964220561527757</v>
+      </c>
+      <c r="F102">
+        <v>0.03956982721821218</v>
+      </c>
+      <c r="G102">
+        <v>-0.00127043266325398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001607409220283066</v>
+        <v>0.003509292473357941</v>
       </c>
       <c r="C103">
-        <v>0.01223421454771085</v>
+        <v>0.00474974338248257</v>
       </c>
       <c r="D103">
-        <v>0.02548435556520359</v>
+        <v>-0.0001618475279837117</v>
       </c>
       <c r="E103">
-        <v>0.01586356054178175</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002161001583506352</v>
+      </c>
+      <c r="F103">
+        <v>0.009447905978267312</v>
+      </c>
+      <c r="G103">
+        <v>0.01585765365401202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9791708917809135</v>
+        <v>0.02776509956578346</v>
       </c>
       <c r="C104">
-        <v>-0.1514728370053786</v>
+        <v>-0.03867427966044341</v>
       </c>
       <c r="D104">
-        <v>-0.00170098838384683</v>
+        <v>-0.9875543390825656</v>
       </c>
       <c r="E104">
-        <v>0.02683238059455313</v>
+        <v>0.03869293382227681</v>
+      </c>
+      <c r="F104">
+        <v>0.03971392145751147</v>
+      </c>
+      <c r="G104">
+        <v>-0.01326489527126199</v>
       </c>
     </row>
   </sheetData>
